--- a/biology/Médecine/Justus_Gottfried_Gunz/Justus_Gottfried_Gunz.xlsx
+++ b/biology/Médecine/Justus_Gottfried_Gunz/Justus_Gottfried_Gunz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Justus Gottfried Gunz, né le 1er mars 1714 à Königstein et mort le 23 juin 1754 à Dresde, est un médecin et anatomiste saxon. 
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'un prédicateur vivant à Königstein en Saxe qui lui sert de maître jusqu'à ses 15 ans, après le lycée de Görlitz, il étudie la médecine (1732) à l'Université de Leipzig dont il obtient son doctorat en 1738. 
 Professeur d'anatomie et de chirurgie à Leipzig dès 1739, il est connu pour ses études opératoires sur la taille, les hernies, les vaisseaux lymphatiques et, entre autres, les abcès des sinus maxillaires. 
-Il tenait un cabinet anatomiques composé de plus de 2 000 pièces[1]. 
-Membre de l'Académie des sciences (France) (1744)[2], il est élu en 1750 à l'Académie royale des sciences de Suède. En 1751, il devient le médecin personnel d'Auguste III.
+Il tenait un cabinet anatomiques composé de plus de 2 000 pièces. 
+Membre de l'Académie des sciences (France) (1744), il est élu en 1750 à l'Académie royale des sciences de Suède. En 1751, il devient le médecin personnel d'Auguste III.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>De mammarum fabrica et lactis secretione, 1734
 De auctore operis de re medica, vulgo Plinio Valeriano adscripti, 1736
